--- a/data/sheets/Lithium.xlsx
+++ b/data/sheets/Lithium.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{999AB338-3DEB-4112-A803-1423E36B6BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53692C96-B34F-4AA0-ACC5-A4A98D878E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDD0D8F4-4ED5-4120-B2D5-15A3D838B66B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD2FFECA-7655-4AD2-B1ED-9BA18ECF4E8D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lithium" sheetId="2" r:id="rId1"/>
+    <sheet name="Lithium" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -500,14 +499,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -852,301 +844,299 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="7" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{0DCA58AE-E366-426E-820B-9233A7D0F42A}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{F88E9E48-8B15-4C71-81ED-0C4A7F4D1AD0}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1624,7 +1614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA72D49-8F35-4741-83A1-227723CF8D34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8760A0C0-1BE7-47C9-94FC-F8DA20716C80}">
   <dimension ref="A1:AR68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
@@ -1633,7 +1623,7 @@
       <selection pane="bottomLeft" activeCell="I2678" sqref="I2678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="3" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="2" max="7" width="12.77734375" style="3" hidden="1" customWidth="1" outlineLevel="2"/>
@@ -1667,7 +1657,7 @@
     <col min="42" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1750,7 @@
       <c r="AQ1" s="11"/>
       <c r="AR1" s="11"/>
     </row>
-    <row r="2" spans="1:44" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1849,7 +1839,7 @@
       <c r="AO2" s="30"/>
       <c r="AP2" s="31"/>
     </row>
-    <row r="3" spans="1:44" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>36</v>
       </c>
@@ -1915,7 +1905,7 @@
       <c r="AO3" s="42"/>
       <c r="AP3" s="39"/>
     </row>
-    <row r="4" spans="1:44" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="L4" s="17"/>
       <c r="M4" s="32"/>
       <c r="N4" s="34"/>
@@ -1942,7 +1932,7 @@
       <c r="AO4" s="42"/>
       <c r="AP4" s="39"/>
     </row>
-    <row r="5" spans="1:44" ht="16.8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" ht="16.8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="J5" s="44" t="s">
         <v>57</v>
       </c>
@@ -1977,7 +1967,7 @@
       <c r="AO5" s="42"/>
       <c r="AP5" s="42"/>
     </row>
-    <row r="6" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L6, A$3)</f>
         <v>#NAME?</v>
@@ -2126,7 +2116,7 @@
       </c>
       <c r="AP6" s="42"/>
     </row>
-    <row r="7" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L7, A$3)</f>
         <v>#NAME?</v>
@@ -2274,7 +2264,7 @@
       </c>
       <c r="AP7" s="42"/>
     </row>
-    <row r="8" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L8, A$3)</f>
         <v>#NAME?</v>
@@ -2422,7 +2412,7 @@
       </c>
       <c r="AP8" s="42"/>
     </row>
-    <row r="9" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L9, A$3)</f>
         <v>#NAME?</v>
@@ -2570,7 +2560,7 @@
       </c>
       <c r="AP9" s="42"/>
     </row>
-    <row r="10" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L10, A$3)</f>
         <v>#NAME?</v>
@@ -2718,7 +2708,7 @@
       </c>
       <c r="AP10" s="42"/>
     </row>
-    <row r="11" spans="1:44" ht="14.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="13.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L11, A$3)</f>
         <v>#NAME?</v>
@@ -3006,7 +2996,7 @@
       <c r="AO13" s="42"/>
       <c r="AP13" s="42"/>
     </row>
-    <row r="14" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L14, A$3)</f>
         <v>#NAME?</v>
@@ -3154,7 +3144,7 @@
       </c>
       <c r="AP14" s="42"/>
     </row>
-    <row r="15" spans="1:44" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L15, A$3)</f>
         <v>#NAME?</v>
@@ -3303,7 +3293,7 @@
       <c r="AP15" s="42"/>
       <c r="AR15" s="87"/>
     </row>
-    <row r="16" spans="1:44" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L16, A$3)</f>
         <v>#NAME?</v>
@@ -3452,7 +3442,7 @@
       <c r="AP16" s="42"/>
       <c r="AR16" s="87"/>
     </row>
-    <row r="17" spans="1:44" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L17, A$3)</f>
         <v>#NAME?</v>
@@ -3601,7 +3591,7 @@
       <c r="AP17" s="42"/>
       <c r="AR17" s="87"/>
     </row>
-    <row r="18" spans="1:44" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L18, A$3)</f>
         <v>#NAME?</v>
@@ -3750,7 +3740,7 @@
       <c r="AP18" s="42"/>
       <c r="AR18" s="87"/>
     </row>
-    <row r="19" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L19, A$3)</f>
         <v>#NAME?</v>
@@ -3898,7 +3888,7 @@
       </c>
       <c r="AP19" s="42"/>
     </row>
-    <row r="20" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L20, A$3)</f>
         <v>#NAME?</v>
@@ -4046,7 +4036,7 @@
       </c>
       <c r="AP20" s="42"/>
     </row>
-    <row r="21" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L21, A$3)</f>
         <v>#NAME?</v>
@@ -4194,7 +4184,7 @@
       </c>
       <c r="AP21" s="42"/>
     </row>
-    <row r="22" spans="1:44" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L22, A$3)</f>
         <v>#NAME?</v>
@@ -4744,11 +4734,11 @@
       <c r="H53" s="53"/>
       <c r="I53" s="53"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H54" s="53"/>
       <c r="I54" s="53"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="95"/>
       <c r="B55" s="95"/>
       <c r="C55" s="95"/>
@@ -4759,55 +4749,55 @@
       <c r="H55" s="53"/>
       <c r="I55" s="53"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H56" s="53"/>
       <c r="I56" s="53"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H57" s="53"/>
       <c r="I57" s="53"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H58" s="53"/>
       <c r="I58" s="53"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H59" s="53"/>
       <c r="I59" s="53"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H60" s="53"/>
       <c r="I60" s="53"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H61" s="53"/>
       <c r="I61" s="53"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H62" s="53"/>
       <c r="I62" s="53"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H63" s="53"/>
       <c r="I63" s="53"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H64" s="53"/>
       <c r="I64" s="53"/>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H65" s="53"/>
       <c r="I65" s="53"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H66" s="53"/>
       <c r="I66" s="53"/>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H67" s="53"/>
       <c r="I67" s="53"/>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H68" s="53"/>
       <c r="I68" s="53"/>
     </row>
@@ -4829,10 +4819,10 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" errorTitle="1x1xSingleCell" error="Savannah Resources Plc" promptTitle="FactSet Formula" prompt="=FDS(B51,&quot;RTP_NAME&quot;)" sqref="AR18" xr:uid="{4F8445F0-992D-45B2-9762-4A5D828F89DA}"/>
-    <dataValidation allowBlank="1" errorTitle="1x1xSingleCell" error="Leo Lithium Ltd." promptTitle="FactSet Formula" prompt="=FDS(B49,&quot;RTP_NAME&quot;)" sqref="AR17" xr:uid="{83E34D92-51C1-41D6-96A8-2A50E0A8E3F4}"/>
-    <dataValidation allowBlank="1" errorTitle="1x1xSingleCell" error="Atlantic Lithium Limited." promptTitle="FactSet Formula" prompt="=FDS(B48,&quot;RTP_NAME&quot;)" sqref="AR16" xr:uid="{0ECE082C-B2AC-4209-BF36-854F03AF65E8}"/>
-    <dataValidation allowBlank="1" errorTitle="1x1xSingleCell" error="Latin Resources Ltd" promptTitle="FactSet Formula" prompt="=FDS(B32,&quot;RTP_NAME&quot;)" sqref="AR15" xr:uid="{9E1FCA8B-F936-45E1-85E4-1141F85BF652}"/>
+    <dataValidation allowBlank="1" errorTitle="1x1xSingleCell" error="Savannah Resources Plc" promptTitle="FactSet Formula" prompt="=FDS(B51,&quot;RTP_NAME&quot;)" sqref="AR18" xr:uid="{12E94C28-F33C-4E4D-BB0D-D90FAEB2C857}"/>
+    <dataValidation allowBlank="1" errorTitle="1x1xSingleCell" error="Leo Lithium Ltd." promptTitle="FactSet Formula" prompt="=FDS(B49,&quot;RTP_NAME&quot;)" sqref="AR17" xr:uid="{C6AFB689-3E29-4FF2-8A5C-2FDDDBC931AF}"/>
+    <dataValidation allowBlank="1" errorTitle="1x1xSingleCell" error="Atlantic Lithium Limited." promptTitle="FactSet Formula" prompt="=FDS(B48,&quot;RTP_NAME&quot;)" sqref="AR16" xr:uid="{D0A9449B-DEF9-42E7-8250-FDAEBDF8AB51}"/>
+    <dataValidation allowBlank="1" errorTitle="1x1xSingleCell" error="Latin Resources Ltd" promptTitle="FactSet Formula" prompt="=FDS(B32,&quot;RTP_NAME&quot;)" sqref="AR15" xr:uid="{137C4468-94F0-434B-AE74-560C99C65989}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
